--- a/app/download_dir/system_files/носки_по каждому размеру.xlsx
+++ b/app/download_dir/system_files/носки_по каждому размеру.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="786">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -937,7 +937,13 @@
     <t xml:space="preserve">ЛИТВА</t>
   </si>
   <si>
+    <t xml:space="preserve">СЕРО-ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ЛИХТЕНШТЕЙН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРО-ЗЕЛЁНЫЙ</t>
   </si>
   <si>
     <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
@@ -2861,7 +2867,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="72.34"/>
@@ -3298,7 +3304,7 @@
     <row r="9" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="18" t="str">
         <f aca="false">CONCATENATE(F9, " ", H9, " ", C9, " арт. ", E9, " цвет ", G9, " p. ", J9)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -3324,7 +3330,7 @@
     <row r="10" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="18" t="str">
         <f aca="false">CONCATENATE(F10, " ", H10, " ", C10, " арт. ", E10, " цвет ", G10, " p. ", J10)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -3350,7 +3356,7 @@
     <row r="11" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="18" t="str">
         <f aca="false">CONCATENATE(F11, " ", H11, " ", C11, " арт. ", E11, " цвет ", G11, " p. ", J11)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -3376,7 +3382,7 @@
     <row r="12" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="18" t="str">
         <f aca="false">CONCATENATE(F12, " ", H12, " ", C12, " арт. ", E12, " цвет ", G12, " p. ", J12)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -3402,7 +3408,7 @@
     <row r="13" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="18" t="str">
         <f aca="false">CONCATENATE(F13, " ", H13, " ", C13, " арт. ", E13, " цвет ", G13, " p. ", J13)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -3428,7 +3434,7 @@
     <row r="14" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="18" t="str">
         <f aca="false">CONCATENATE(F14, " ", H14, " ", C14, " арт. ", E14, " цвет ", G14, " p. ", J14)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -3454,7 +3460,7 @@
     <row r="15" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="18" t="str">
         <f aca="false">CONCATENATE(F15, " ", H15, " ", C15, " арт. ", E15, " цвет ", G15, " p. ", J15)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -3480,7 +3486,7 @@
     <row r="16" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="18" t="str">
         <f aca="false">CONCATENATE(F16, " ", H16, " ", C16, " арт. ", E16, " цвет ", G16, " p. ", J16)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -3506,7 +3512,7 @@
     <row r="17" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="18" t="str">
         <f aca="false">CONCATENATE(F17, " ", H17, " ", C17, " арт. ", E17, " цвет ", G17, " p. ", J17)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -3532,7 +3538,7 @@
     <row r="18" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="18" t="str">
         <f aca="false">CONCATENATE(F18, " ", H18, " ", C18, " арт. ", E18, " цвет ", G18, " p. ", J18)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -3558,7 +3564,7 @@
     <row r="19" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="18" t="str">
         <f aca="false">CONCATENATE(F19, " ", H19, " ", C19, " арт. ", E19, " цвет ", G19, " p. ", J19)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -3584,7 +3590,7 @@
     <row r="20" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="18" t="str">
         <f aca="false">CONCATENATE(F20, " ", H20, " ", C20, " арт. ", E20, " цвет ", G20, " p. ", J20)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -3610,7 +3616,7 @@
     <row r="21" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="18" t="str">
         <f aca="false">CONCATENATE(F21, " ", H21, " ", C21, " арт. ", E21, " цвет ", G21, " p. ", J21)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -3636,7 +3642,7 @@
     <row r="22" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="18" t="str">
         <f aca="false">CONCATENATE(F22, " ", H22, " ", C22, " арт. ", E22, " цвет ", G22, " p. ", J22)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -3662,7 +3668,7 @@
     <row r="23" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="18" t="str">
         <f aca="false">CONCATENATE(F23, " ", H23, " ", C23, " арт. ", E23, " цвет ", G23, " p. ", J23)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -3688,7 +3694,7 @@
     <row r="24" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="18" t="str">
         <f aca="false">CONCATENATE(F24, " ", H24, " ", C24, " арт. ", E24, " цвет ", G24, " p. ", J24)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -3714,7 +3720,7 @@
     <row r="25" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="18" t="str">
         <f aca="false">CONCATENATE(F25, " ", H25, " ", C25, " арт. ", E25, " цвет ", G25, " p. ", J25)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -3740,7 +3746,7 @@
     <row r="26" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="18" t="str">
         <f aca="false">CONCATENATE(F26, " ", H26, " ", C26, " арт. ", E26, " цвет ", G26, " p. ", J26)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -3766,7 +3772,7 @@
     <row r="27" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="18" t="str">
         <f aca="false">CONCATENATE(F27, " ", H27, " ", C27, " арт. ", E27, " цвет ", G27, " p. ", J27)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -3792,7 +3798,7 @@
     <row r="28" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="18" t="str">
         <f aca="false">CONCATENATE(F28, " ", H28, " ", C28, " арт. ", E28, " цвет ", G28, " p. ", J28)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -3818,7 +3824,7 @@
     <row r="29" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="18" t="str">
         <f aca="false">CONCATENATE(F29, " ", H29, " ", C29, " арт. ", E29, " цвет ", G29, " p. ", J29)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
@@ -3844,7 +3850,7 @@
     <row r="30" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="18" t="str">
         <f aca="false">CONCATENATE(F30, " ", H30, " ", C30, " арт. ", E30, " цвет ", G30, " p. ", J30)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -3870,7 +3876,7 @@
     <row r="31" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="18" t="str">
         <f aca="false">CONCATENATE(F31, " ", H31, " ", C31, " арт. ", E31, " цвет ", G31, " p. ", J31)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
@@ -3896,7 +3902,7 @@
     <row r="32" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="18" t="str">
         <f aca="false">CONCATENATE(F32, " ", H32, " ", C32, " арт. ", E32, " цвет ", G32, " p. ", J32)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -3922,7 +3928,7 @@
     <row r="33" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="18" t="str">
         <f aca="false">CONCATENATE(F33, " ", H33, " ", C33, " арт. ", E33, " цвет ", G33, " p. ", J33)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -3948,7 +3954,7 @@
     <row r="34" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="18" t="str">
         <f aca="false">CONCATENATE(F34, " ", H34, " ", C34, " арт. ", E34, " цвет ", G34, " p. ", J34)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
@@ -3974,7 +3980,7 @@
     <row r="35" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="18" t="str">
         <f aca="false">CONCATENATE(F35, " ", H35, " ", C35, " арт. ", E35, " цвет ", G35, " p. ", J35)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -4000,7 +4006,7 @@
     <row r="36" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="18" t="str">
         <f aca="false">CONCATENATE(F36, " ", H36, " ", C36, " арт. ", E36, " цвет ", G36, " p. ", J36)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -4026,7 +4032,7 @@
     <row r="37" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="18" t="str">
         <f aca="false">CONCATENATE(F37, " ", H37, " ", C37, " арт. ", E37, " цвет ", G37, " p. ", J37)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -4052,7 +4058,7 @@
     <row r="38" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="18" t="str">
         <f aca="false">CONCATENATE(F38, " ", H38, " ", C38, " арт. ", E38, " цвет ", G38, " p. ", J38)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -4078,7 +4084,7 @@
     <row r="39" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="18" t="str">
         <f aca="false">CONCATENATE(F39, " ", H39, " ", C39, " арт. ", E39, " цвет ", G39, " p. ", J39)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
@@ -4104,7 +4110,7 @@
     <row r="40" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="18" t="str">
         <f aca="false">CONCATENATE(F40, " ", H40, " ", C40, " арт. ", E40, " цвет ", G40, " p. ", J40)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -4130,7 +4136,7 @@
     <row r="41" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="18" t="str">
         <f aca="false">CONCATENATE(F41, " ", H41, " ", C41, " арт. ", E41, " цвет ", G41, " p. ", J41)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
@@ -4156,7 +4162,7 @@
     <row r="42" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="18" t="str">
         <f aca="false">CONCATENATE(F42, " ", H42, " ", C42, " арт. ", E42, " цвет ", G42, " p. ", J42)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
@@ -4182,7 +4188,7 @@
     <row r="43" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="18" t="str">
         <f aca="false">CONCATENATE(F43, " ", H43, " ", C43, " арт. ", E43, " цвет ", G43, " p. ", J43)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -4208,7 +4214,7 @@
     <row r="44" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="18" t="str">
         <f aca="false">CONCATENATE(F44, " ", H44, " ", C44, " арт. ", E44, " цвет ", G44, " p. ", J44)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
@@ -4234,7 +4240,7 @@
     <row r="45" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="18" t="str">
         <f aca="false">CONCATENATE(F45, " ", H45, " ", C45, " арт. ", E45, " цвет ", G45, " p. ", J45)</f>
-        <v>   арт.  цвет  p. </v>
+        <v>арт.  цвет  p.</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -15747,11 +15753,11 @@
   </sheetPr>
   <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B111" activeCellId="0" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.58"/>
@@ -15759,7 +15765,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="71.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1021" style="1" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1021" style="1" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -16725,288 +16731,294 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="E111" s="27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="E112" s="27" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="27" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="27" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="27" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E117" s="27" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E118" s="27" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E119" s="27" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E120" s="27" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="27" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="27" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="27" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="27" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="27" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E126" s="27" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E127" s="27" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E128" s="27" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="27" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="27" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="27" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="27" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E133" s="27" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E134" s="27" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E135" s="27" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="27" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E137" s="27" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E138" s="27" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E139" s="27" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E140" s="27" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="27" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E142" s="27" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E143" s="27" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E144" s="27" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E145" s="27" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="27" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="27" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E148" s="27" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E149" s="27" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E150" s="27" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E151" s="27" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="27" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="27" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E154" s="27" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E155" s="27" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E156" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="27" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="27" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="27" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="27" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="27" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E162" s="27" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E163" s="27" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E164" s="27" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="27" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E166" s="27" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="27" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17016,372 +17028,372 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="27" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="27" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="27" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E172" s="27" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E173" s="27" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="27" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="27" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="27" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E177" s="27" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="27" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="27" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="27" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="27" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="27" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="27" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="27" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="27" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="27" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="27" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="27" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="27" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E190" s="27" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="27" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="27" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="27" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="27" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E195" s="27" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E196" s="27" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="27" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="27" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="27" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E200" s="27" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="27" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E202" s="27" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E203" s="27" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E204" s="27" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E205" s="27" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E206" s="27" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E207" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E208" s="27" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E209" s="27" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E210" s="27" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E211" s="27" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E212" s="27" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E213" s="27" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E214" s="27" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E215" s="27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E216" s="27" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E217" s="27" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E218" s="27" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E219" s="27" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E220" s="27" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E221" s="27" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E222" s="27" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E223" s="27" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E224" s="27" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E225" s="27" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E226" s="27" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E227" s="27" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E228" s="27" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E229" s="27" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E230" s="27" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E231" s="27" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E232" s="27" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E233" s="27" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E234" s="27" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E235" s="27" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E236" s="27" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E237" s="27" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E238" s="27" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E239" s="27" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E240" s="27" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E241" s="27" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E242" s="27" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17421,11 +17433,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.63"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17438,7 +17450,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="G3" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>25</v>
@@ -17450,35 +17462,35 @@
         <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="G4" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>25</v>
@@ -17493,35 +17505,35 @@
         <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="29"/>
       <c r="E5" s="29"/>
       <c r="G5" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>12</v>
@@ -17547,7 +17559,7 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="G6" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>25</v>
@@ -17559,28 +17571,28 @@
         <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17588,10 +17600,10 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="G7" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>12</v>
@@ -17627,37 +17639,37 @@
         <v>31</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18029,6239 +18041,6239 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="245.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="245.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="32" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="31" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="31" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="31" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="31" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="31" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="31" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="32" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="32" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="33" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="33" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="33" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="33" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="33" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="33" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="33" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="33" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="33" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="33" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="33" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="33" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="33" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="33" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="33" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="33" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="33" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="33" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="33" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="33" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="33" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="33" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="33" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="33" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="33" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="33" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="33" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="33" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="33" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="33" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="33" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="33" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="33" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="32" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="33" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="33" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="33" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="33" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="33" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="34" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="34" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="34" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="34" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="32" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="33" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="33" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="32" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="33" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="33" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="33" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="33" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="33" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="33" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="33" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="33" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="33" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="33" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="33" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="33" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="33" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="33" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="33" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="33" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="33" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="33" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="33" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="33" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="33" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="33" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="33" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="33" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="33" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="33" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="33" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="33" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="33" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="33" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="33" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="33" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="33" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="33" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="33" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="32" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="33" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="33" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="33" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="33" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="33" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="33" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="33" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="33" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="33" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="33" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="33" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="33" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="33" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="33" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="33" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="33" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="33" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="33" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="33" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="33" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="33" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="33" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="33" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="33" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="33" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="33" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="33" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="33" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="33" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="33" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="33" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="33" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="33" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="32" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="33" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="34" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="34" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="35" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="35" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="35" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="35" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="35" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="35" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="32" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="33" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="33" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="33" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="33" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="34" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="34" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="34" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="34" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="34" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="34" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="36" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="36" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="36" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="36" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="32" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="33" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="33" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="33" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="33" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="34" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="34" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="34" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="34" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="34" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="34" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="32" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="33" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="33" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="33" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="33" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="33" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="33" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="33" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="34" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="34" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="34" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="34" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="34" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="34" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="34" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="34" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="34" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="34" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="32" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="33" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="33" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="33" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="33" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="33" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="33" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="33" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="34" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="34" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="34" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="34" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="34" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="34" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="34" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="34" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="34" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="34" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="32" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="33" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="33" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="33" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="33" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="33" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="33" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="33" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="34" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="34" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="34" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="34" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="34" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="34" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="34" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="34" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="34" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="34" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="32" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="33" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="33" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="33" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="33" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="33" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="33" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="33" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="34" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="34" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="34" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="34" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="34" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="34" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="34" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="34" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="34" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="34" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="32" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="33" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="33" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="33" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="33" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="33" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="33" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="32" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="33" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="33" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="33" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="33" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="33" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="33" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="33" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="34" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="34" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="34" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="34" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="34" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="34" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="34" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="34" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="34" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="34" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="32" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="33" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="33" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="33" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="33" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="33" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="33" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="33" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="33" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="33" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="33" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="33" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="33" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="33" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="33" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="32" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="33" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="33" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="34" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="34" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="34" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="34" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="34" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="34" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="35" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="35" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="33" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="33" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="33" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="37" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="37" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="37" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="33" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="33" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="33" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="33" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="33" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="37" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="37" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="37" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="37" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="37" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="33" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="33" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="33" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="33" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="33" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="33" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="33" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="33" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="33" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="33" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="33" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="33" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="33" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="33" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="33" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="33" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="33" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="33" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="33" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="33" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="33" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="33" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="33" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="33" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="33" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="33" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="33" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="33" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="33" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="33" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="33" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="33" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="33" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="33" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="33" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="33" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="33" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="33" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="33" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="33" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="33" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="33" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="33" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="33" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="33" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="33" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="33" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="33" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="33" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="33" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="33" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="33" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="33" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="33" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="33" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="37" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="37" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="37" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="37" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="38" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="38" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="38" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="38" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="38" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="38" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="37" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="37" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="35" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="37" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="35" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="35" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="35" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="35" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="35" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="35" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="35" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="35" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="35" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="37" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="37" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="37" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="37" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="37" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="37" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="35" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="35" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="35" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="35" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="35" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="35" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="37" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="37" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="37" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="37" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="37" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="35" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="35" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="35" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="35" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="35" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="35" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="37" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="35" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="35" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="35" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="35" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="37" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="37" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="35" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="35" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="35" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="35" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="35" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="37" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="35" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="35" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="35" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="35" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="35" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="37" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="35" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="35" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="35" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="35" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="35" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="37" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="35" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="35" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="35" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="35" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="35" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="37" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="35" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="35" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="35" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="35" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="35" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="35" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="35" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="35" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="35" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="35" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="37" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="35" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="35" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="35" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="35" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="35" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="35" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="35" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="35" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="35" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="35" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="37" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="35" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="35" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="35" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="35" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="35" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="35" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="35" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="35" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="35" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="35" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="35" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="35" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="35" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="35" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="35" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="35" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="37" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="33" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="33" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="33" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="33" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="33" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="37" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="37" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="35" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="35" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="35" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="35" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="37" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="37" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="37" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="35" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="35" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="35" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="35" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="35" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="35" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="35" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="35" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="35" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="35" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="35" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="37" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="35" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="35" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="35" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="35" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="35" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="35" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="35" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="35" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="35" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="35" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="35" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="37" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="37" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="35" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="35" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="35" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="35" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="35" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="35" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="35" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="35" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="35" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="35" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="35" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="35" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="35" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="35" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="35" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="35" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="37" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="37" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="37" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="37" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="37" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="37" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="37" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="37" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="35" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="35" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="37" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="35" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="35" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="31" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="31" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="31" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="31" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="31" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="31" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="31" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="31" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="31" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="31" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="37" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="37" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="35" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="35" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="35" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="35" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="35" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="35" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="35" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="35" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="37" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="35" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="35" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="35" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="35" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="35" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="35" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="35" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="35" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="37" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="35" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="35" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="35" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="35" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="35" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="35" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="35" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="35" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="37" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="35" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="35" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="35" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="35" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="35" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="35" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="35" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="35" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="35" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="35" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="35" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="37" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="37" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="37" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1151" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1153" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="37" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="35" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="35" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="35" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="35" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="35" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="35" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="35" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="35" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="35" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="37" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="35" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="35" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="35" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="35" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="35" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="35" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="35" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="35" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="35" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1178" s="37" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="35" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="35" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="35" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="35" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="35" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="35" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="35" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="35" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="35" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="35" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="35" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="37" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="35" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="35" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1194" s="35" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1195" s="35" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1196" s="35" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1197" s="35" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1198" s="35" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1199" s="35" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1200" s="35" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1201" s="35" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1202" s="35" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1203" s="35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1204" s="35" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1205" s="35" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1206" s="37" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1207" s="35" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1208" s="35" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1209" s="35" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1210" s="35" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1211" s="35" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1212" s="35" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1213" s="35" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1214" s="35" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="35" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1216" s="35" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1217" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1217" s="35" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1218" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1218" s="35" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1219" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="35" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="35" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="37" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1222" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1225" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1226" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1227" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1228" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1231" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1233" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1234" s="37" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1235" s="35" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1236" s="35" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1237" s="35" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1238" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="35" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="35" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="35" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1242" s="35" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="35" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1244" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="35" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1245" s="35" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1246" s="35" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/system_files/носки_по каждому размеру.xlsx
+++ b/app/download_dir/system_files/носки_по каждому размеру.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="787">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -947,6 +947,9 @@
   </si>
   <si>
     <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАМУФЛЯЖНЫЙ</t>
   </si>
   <si>
     <t xml:space="preserve">МАВРИКИЙ</t>
@@ -2867,7 +2870,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="72.34"/>
@@ -15754,10 +15757,10 @@
   <dimension ref="A1:F246"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B111" activeCellId="0" sqref="B111"/>
+      <selection pane="topLeft" activeCell="B113" activeCellId="0" sqref="B113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.58"/>
@@ -16747,278 +16750,281 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="E113" s="27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E117" s="27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E118" s="27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E119" s="27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E120" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E126" s="27" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E127" s="27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E128" s="27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="27" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E133" s="27" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E134" s="27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E135" s="27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="27" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E137" s="27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E138" s="27" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E139" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E140" s="27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="27" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E142" s="27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E143" s="27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E144" s="27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E145" s="27" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="27" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E148" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E149" s="27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E150" s="27" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E151" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="27" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E154" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E155" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E156" s="27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="27" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="27" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="27" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E162" s="27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E163" s="27" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E164" s="27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E166" s="27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17028,372 +17034,372 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="27" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E172" s="27" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E173" s="27" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="27" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="27" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E177" s="27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="27" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="27" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="27" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="27" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="27" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="27" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="27" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E190" s="27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="27" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="27" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="27" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E195" s="27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E196" s="27" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="27" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="27" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="27" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E200" s="27" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E202" s="27" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E203" s="27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E204" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E205" s="27" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E206" s="27" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E207" s="27" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E208" s="27" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E209" s="27" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E210" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E211" s="27" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E212" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E213" s="27" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E214" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E215" s="27" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E216" s="27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E217" s="27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E218" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E219" s="27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E220" s="27" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E221" s="27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E222" s="27" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E223" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E224" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E225" s="27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E226" s="27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E227" s="27" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E228" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E229" s="27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E230" s="27" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E231" s="27" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E232" s="27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E233" s="27" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E234" s="27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E235" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E236" s="27" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E237" s="27" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E238" s="27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E239" s="27" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E240" s="27" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E241" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E242" s="27" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17409,7 +17415,7 @@
       <c r="E246" s="27"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B112">
+  <conditionalFormatting sqref="B2:B113">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17433,7 +17439,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.16"/>
@@ -17450,7 +17456,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="G3" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>25</v>
@@ -17462,35 +17468,35 @@
         <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="G4" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>25</v>
@@ -17505,35 +17511,35 @@
         <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="29"/>
       <c r="E5" s="29"/>
       <c r="G5" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>12</v>
@@ -17559,7 +17565,7 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="G6" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>25</v>
@@ -17571,28 +17577,28 @@
         <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17600,10 +17606,10 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="G7" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>12</v>
@@ -17639,37 +17645,37 @@
         <v>31</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18041,6239 +18047,6239 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="245.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="245.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="32" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="31" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="31" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="31" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="32" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="32" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="33" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="33" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="33" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="33" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="33" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="33" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="33" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="33" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="33" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="33" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="33" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="33" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="33" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="33" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="33" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="33" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="33" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="33" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="33" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="33" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="33" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="33" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="33" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="33" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="33" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="33" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="33" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="33" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="33" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="33" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="33" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="33" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="33" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="32" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="33" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="33" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="33" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="33" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="33" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="34" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="34" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="34" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="32" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="33" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="33" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="32" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="33" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="33" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="33" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="33" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="33" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="33" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="33" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="33" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="33" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="33" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="33" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="33" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="33" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="33" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="33" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="33" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="33" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="33" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="33" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="33" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="33" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="33" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="33" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="33" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="33" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="33" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="33" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="33" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="33" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="33" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="33" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="33" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="33" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="33" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="33" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="32" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="33" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="33" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="33" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="33" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="33" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="33" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="33" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="33" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="33" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="33" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="33" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="33" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="33" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="33" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="33" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="33" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="33" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="33" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="33" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="33" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="33" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="33" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="33" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="33" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="33" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="33" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="33" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="33" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="33" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="33" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="33" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="33" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="33" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="32" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="33" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="34" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="35" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="35" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="35" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="35" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="35" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="35" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="33" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="33" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="33" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="34" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="34" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="34" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="34" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="36" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="36" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="36" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="36" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="32" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="33" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="33" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="33" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="34" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="34" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="34" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="34" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="32" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="33" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="33" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="33" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="33" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="33" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="33" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="33" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="34" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="34" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="34" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="34" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="34" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="34" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="34" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="34" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="32" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="33" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="33" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="33" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="33" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="33" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="33" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="33" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="34" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="34" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="34" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="34" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="34" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="34" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="34" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="34" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="32" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="33" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="33" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="33" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="33" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="33" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="33" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="33" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="34" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="34" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="34" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="34" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="34" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="34" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="34" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="34" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="32" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="33" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="33" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="33" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="33" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="33" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="33" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="33" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="34" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="34" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="34" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="34" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="34" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="34" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="34" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="34" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="32" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="33" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="33" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="33" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="33" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="33" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="33" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="32" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="33" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="33" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="33" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="33" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="33" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="33" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="33" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="34" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="34" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="34" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="34" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="34" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="34" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="34" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="34" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="32" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="33" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="33" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="33" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="33" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="33" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="33" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="33" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="33" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="33" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="33" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="33" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="33" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="33" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="33" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="32" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="33" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="33" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="34" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="34" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="34" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="34" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="34" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="35" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="35" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="33" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="33" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="37" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="37" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="37" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="33" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="33" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="33" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="33" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="33" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="37" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="37" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="37" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="37" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="37" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="33" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="33" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="33" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="33" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="33" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="33" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="33" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="33" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="33" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="33" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="33" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="33" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="33" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="33" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="33" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="33" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="33" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="33" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="33" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="33" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="33" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="33" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="33" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="33" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="33" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="33" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="33" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="33" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="33" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="33" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="33" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="33" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="33" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="33" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="33" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="33" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="33" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="33" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="33" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="33" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="33" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="33" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="33" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="33" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="33" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="33" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="33" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="33" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="33" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="33" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="33" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="33" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="33" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="33" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="33" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="37" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="37" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="37" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="37" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="38" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="38" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="38" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="38" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="38" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="38" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="37" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="37" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="35" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="37" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="35" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="35" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="35" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="35" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="35" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="35" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="35" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="35" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="35" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="37" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="37" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="37" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="37" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="37" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="37" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="35" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="35" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="35" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="35" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="35" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="35" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="37" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="37" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="37" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="37" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="37" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="35" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="35" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="35" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="35" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="37" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="35" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="35" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="35" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="37" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="37" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="35" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="35" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="35" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="35" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="35" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="37" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="35" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="35" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="35" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="35" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="35" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="37" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="35" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="35" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="35" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="35" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="35" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="37" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="35" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="35" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="35" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="35" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="35" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="37" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="35" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="35" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="35" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="35" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="35" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="35" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="35" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="35" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="37" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="35" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="35" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="35" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="35" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="35" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="35" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="35" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="35" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="37" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="35" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="35" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="35" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="35" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="35" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="35" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="35" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="35" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="35" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="35" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="35" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="35" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="35" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="35" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="35" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="37" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="33" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="33" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="33" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="33" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="33" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="37" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="37" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="35" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="35" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="35" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="35" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="37" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="37" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="37" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="35" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="35" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="35" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="35" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="35" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="35" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="35" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="35" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="35" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="37" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="35" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="35" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="35" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="35" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="35" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="35" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="35" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="35" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="35" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="37" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="37" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="35" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="35" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="35" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="35" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="35" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="35" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="35" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="35" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="35" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="35" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="35" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="35" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="35" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="35" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="35" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="37" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="37" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="37" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="37" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="37" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="37" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="37" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="37" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="35" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="35" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="37" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="35" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="35" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="31" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="31" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="31" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="31" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="31" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="31" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="37" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="37" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="35" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="35" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="35" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="35" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="35" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="35" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="37" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="35" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="35" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="35" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="35" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="35" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="35" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="37" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="35" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="35" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="35" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="35" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="35" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="35" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="37" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="35" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="35" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="35" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="35" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="35" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="35" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="35" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="35" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="35" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="37" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="37" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="37" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1151" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1153" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="37" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="35" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="35" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="35" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="35" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="35" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="35" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="35" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="35" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="35" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="37" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="35" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="35" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="35" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="35" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="35" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="35" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="35" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="35" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="35" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1178" s="37" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="35" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="35" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="35" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="35" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="35" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="35" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="35" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="35" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="35" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="37" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="35" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="35" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1194" s="35" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1195" s="35" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1196" s="35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1197" s="35" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1198" s="35" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1199" s="35" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1200" s="35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1201" s="35" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1202" s="35" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1203" s="35" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1204" s="35" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1205" s="35" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1206" s="37" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1207" s="35" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1208" s="35" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1209" s="35" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1210" s="35" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1211" s="35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1212" s="35" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1213" s="35" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1214" s="35" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1216" s="35" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1217" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1217" s="35" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1218" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1218" s="35" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1219" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="35" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="35" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="37" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1222" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1225" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1226" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1227" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1228" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1231" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1233" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="1234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1234" s="37" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1235" s="35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1236" s="35" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1237" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1238" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="35" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="35" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="35" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1242" s="35" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="35" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1244" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="35" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1245" s="35" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1246" s="35" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/system_files/носки_по каждому размеру.xlsx
+++ b/app/download_dir/system_files/носки_по каждому размеру.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="786">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">КИТАЙ</t>
   </si>
   <si>
-    <t xml:space="preserve">Отказное письмо</t>
+    <t xml:space="preserve">Декларация соответствия</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
@@ -247,9 +247,6 @@
     <t xml:space="preserve">АБХАЗИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">Декларация соответствия</t>
-  </si>
-  <si>
     <t xml:space="preserve">ГЕТРЫ</t>
   </si>
   <si>
@@ -265,13 +262,13 @@
     <t xml:space="preserve">АВСТРАЛИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">Сертификат</t>
+  </si>
+  <si>
     <t xml:space="preserve">БЕЖЕВЫЙ/ЗЕЛЕНЫЙ</t>
   </si>
   <si>
     <t xml:space="preserve">АВСТРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сертификат</t>
   </si>
   <si>
     <t xml:space="preserve">ГОЛЬФИНЫ</t>
@@ -2867,10 +2864,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="72.34"/>
@@ -15723,7 +15720,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O7:O1045" type="list">
-      <formula1>Справочники!$F$2:$F$4</formula1>
+      <formula1>Справочники!$F$2:$F$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H7:H400" type="list">
@@ -15756,11 +15753,11 @@
   </sheetPr>
   <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B113" activeCellId="0" sqref="B113"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.58"/>
@@ -15809,27 +15806,27 @@
         <v>70</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>76</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15845,55 +15842,52 @@
       <c r="E4" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="27" t="s">
         <v>82</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="27" t="s">
         <v>85</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="E7" s="27" t="s">
         <v>88</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="E8" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15901,364 +15895,364 @@
         <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>93</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="27" t="s">
         <v>96</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="27" t="s">
         <v>102</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="27" t="s">
         <v>105</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="E14" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="E15" s="27" t="s">
         <v>111</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>113</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>115</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>121</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>123</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>125</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>129</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>131</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>133</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>135</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="27" t="s">
         <v>137</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>139</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>141</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="27" t="s">
         <v>143</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="27" t="s">
         <v>145</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="27" t="s">
         <v>147</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="27" t="s">
         <v>149</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="27" t="s">
         <v>151</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="27" t="s">
         <v>153</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="27" t="s">
         <v>155</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="27" t="s">
         <v>157</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="27" t="s">
         <v>159</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="27" t="s">
         <v>161</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="27" t="s">
         <v>163</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="27" t="s">
         <v>165</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="27" t="s">
         <v>167</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="27" t="s">
         <v>169</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="27" t="s">
         <v>171</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="27" t="s">
         <v>173</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="27" t="s">
         <v>175</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="27" t="s">
         <v>177</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="27" t="s">
         <v>179</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="27" t="s">
         <v>181</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="27" t="s">
         <v>183</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16266,356 +16260,356 @@
         <v>50</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E53" s="27" t="s">
         <v>186</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="27" t="s">
         <v>188</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" s="27" t="s">
         <v>192</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="27" t="s">
         <v>194</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E58" s="27" t="s">
         <v>196</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" s="27" t="s">
         <v>200</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" s="27" t="s">
         <v>202</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E62" s="27" t="s">
         <v>204</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E63" s="27" t="s">
         <v>206</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="27" t="s">
         <v>208</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" s="27" t="s">
         <v>210</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" s="27" t="s">
         <v>212</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" s="27" t="s">
         <v>214</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E68" s="27" t="s">
         <v>216</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E69" s="27" t="s">
         <v>218</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E70" s="27" t="s">
         <v>220</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E71" s="27" t="s">
         <v>222</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E72" s="27" t="s">
         <v>224</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E73" s="27" t="s">
         <v>226</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74" s="27" t="s">
         <v>228</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" s="27" t="s">
         <v>230</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="27" t="s">
         <v>232</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E77" s="27" t="s">
         <v>234</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E78" s="27" t="s">
         <v>236</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="27" t="s">
         <v>238</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E80" s="27" t="s">
         <v>240</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E81" s="27" t="s">
         <v>242</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E82" s="27" t="s">
         <v>244</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E83" s="27" t="s">
         <v>246</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E84" s="27" t="s">
         <v>248</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E85" s="27" t="s">
         <v>250</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E86" s="27" t="s">
         <v>252</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E87" s="27" t="s">
         <v>254</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E88" s="27" t="s">
         <v>256</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E89" s="27" t="s">
         <v>258</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E90" s="27" t="s">
         <v>260</v>
-      </c>
-      <c r="E90" s="27" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91" s="27" t="s">
         <v>262</v>
-      </c>
-      <c r="E91" s="27" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E92" s="27" t="s">
         <v>264</v>
-      </c>
-      <c r="E92" s="27" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E93" s="27" t="s">
         <v>266</v>
-      </c>
-      <c r="E93" s="27" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E94" s="27" t="s">
         <v>268</v>
-      </c>
-      <c r="E94" s="27" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E95" s="27" t="s">
         <v>270</v>
-      </c>
-      <c r="E95" s="27" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E96" s="27" t="s">
         <v>57</v>
@@ -16623,408 +16617,408 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E97" s="27" t="s">
         <v>273</v>
-      </c>
-      <c r="E97" s="27" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E98" s="27" t="s">
         <v>275</v>
-      </c>
-      <c r="E98" s="27" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E99" s="27" t="s">
         <v>277</v>
-      </c>
-      <c r="E99" s="27" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E100" s="27" t="s">
         <v>279</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E101" s="27" t="s">
         <v>281</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E102" s="27" t="s">
         <v>283</v>
-      </c>
-      <c r="E102" s="27" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E103" s="27" t="s">
         <v>285</v>
-      </c>
-      <c r="E103" s="27" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E104" s="27" t="s">
         <v>287</v>
-      </c>
-      <c r="E104" s="27" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E105" s="27" t="s">
         <v>289</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E106" s="27" t="s">
         <v>291</v>
-      </c>
-      <c r="E106" s="27" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E107" s="27" t="s">
         <v>293</v>
-      </c>
-      <c r="E107" s="27" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E108" s="27" t="s">
         <v>295</v>
-      </c>
-      <c r="E108" s="27" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E109" s="27" t="s">
         <v>297</v>
-      </c>
-      <c r="E109" s="27" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E110" s="27" t="s">
         <v>299</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E111" s="27" t="s">
         <v>301</v>
-      </c>
-      <c r="E111" s="27" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E112" s="27" t="s">
         <v>303</v>
-      </c>
-      <c r="E112" s="27" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E113" s="27" t="s">
         <v>305</v>
-      </c>
-      <c r="E113" s="27" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E117" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E118" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E119" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E120" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E126" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E127" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E128" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E133" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E134" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E135" s="27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E137" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E138" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E139" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E140" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E142" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E143" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E144" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E145" s="27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E148" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E149" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E150" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E151" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E154" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E155" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E156" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E162" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E163" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E164" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E166" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17034,372 +17028,372 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E169" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E171" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E172" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E173" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E174" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E175" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E176" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E177" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E178" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E181" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E182" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E188" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E190" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E192" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E195" s="27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E196" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E200" s="27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E202" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E203" s="27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E204" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E205" s="27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E206" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E207" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E208" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E209" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E210" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E211" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E212" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E213" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E214" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E215" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E216" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E217" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E218" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E219" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E220" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E221" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E222" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E223" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E224" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E225" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E226" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E227" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E228" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E229" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E230" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E231" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E232" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E233" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E234" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E235" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E236" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E237" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E238" s="27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E239" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E240" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E241" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E242" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17439,7 +17433,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.16"/>
@@ -17456,7 +17450,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="G3" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>25</v>
@@ -17468,35 +17462,35 @@
         <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="G4" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>25</v>
@@ -17511,35 +17505,35 @@
         <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="29"/>
       <c r="E5" s="29"/>
       <c r="G5" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>12</v>
@@ -17565,7 +17559,7 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="G6" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>25</v>
@@ -17577,28 +17571,28 @@
         <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="R6" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17606,10 +17600,10 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="G7" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>12</v>
@@ -17645,37 +17639,37 @@
         <v>31</v>
       </c>
       <c r="T7" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="X7" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18047,6239 +18041,6239 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="245.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="245.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="31" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="32" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="33" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="33" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="33" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="33" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="33" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="33" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="33" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="33" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="33" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="33" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="33" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="33" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="32" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="33" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="32" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="32" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="32" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="33" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="37" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="37" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="37" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="33" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="33" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="33" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="33" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="37" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="37" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="37" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="37" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="37" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="33" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="33" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="33" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="33" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="33" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="33" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="33" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="33" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="33" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="33" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="37" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="37" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="37" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="37" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="38" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="38" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="38" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="37" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="37" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="35" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="37" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="35" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="35" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="35" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="37" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="37" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="37" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="37" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="37" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="37" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="35" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="35" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="35" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="37" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="37" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="37" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="37" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="37" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="35" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="35" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="37" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="35" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="35" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="37" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="35" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="35" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="37" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="35" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="35" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="35" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="37" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="35" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="37" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="35" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="33" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="33" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="33" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="33" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="37" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="37" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="35" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="37" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="37" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="35" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="35" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="35" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="35" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="35" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="37" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="35" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="35" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="35" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="35" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="35" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="37" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="35" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="37" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="37" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="37" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="37" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="37" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="37" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="37" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="37" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="37" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="35" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="31" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="37" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="37" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="35" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="37" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="35" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="37" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="35" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="37" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="35" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="35" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="37" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="37" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="37" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1151" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1153" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="35" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="35" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="35" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="35" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="35" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="35" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="35" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="35" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="35" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="35" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="35" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="35" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="35" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="35" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="35" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="35" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="35" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="35" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1178" s="37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="35" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="35" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="37" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1194" s="35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1195" s="35" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1196" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1197" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1198" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1199" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1200" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1201" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1202" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1203" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1204" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1205" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1205" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1206" s="37" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1207" s="35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1208" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1209" s="35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1210" s="35" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1211" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1212" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1213" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1214" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1216" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="1217" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1217" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1218" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1218" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1219" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1222" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1225" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1226" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1227" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1228" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1231" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1233" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="1234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1234" s="37" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1235" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1236" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1237" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1238" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="35" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1242" s="35" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1244" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1245" s="35" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1246" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
